--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.2861558054082</v>
+        <v>223.1152137231206</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.776842608185</v>
+        <v>305.2760785643666</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.3616492084794</v>
+        <v>276.140958083941</v>
       </c>
       <c r="AD2" t="n">
-        <v>202286.1558054082</v>
+        <v>223115.2137231206</v>
       </c>
       <c r="AE2" t="n">
-        <v>276776.842608185</v>
+        <v>305276.0785643666</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.969661156849269e-06</v>
+        <v>6.710909145159878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>250361.6492084794</v>
+        <v>276140.958083941</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.8306929576166</v>
+        <v>137.659661366778</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.8529083109498</v>
+        <v>188.3520217975829</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.5967710967626</v>
+        <v>170.3759691909976</v>
       </c>
       <c r="AD3" t="n">
-        <v>116830.6929576166</v>
+        <v>137659.661366778</v>
       </c>
       <c r="AE3" t="n">
-        <v>159852.9083109498</v>
+        <v>188352.0217975829</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.330325212192077e-06</v>
+        <v>9.01117924169827e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.801388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>144596.7710967626</v>
+        <v>170375.9691909976</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.7374996975604</v>
+        <v>150.8333840392598</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.8808148175442</v>
+        <v>206.3768903416899</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.8086809122082</v>
+        <v>186.6805695793226</v>
       </c>
       <c r="AD2" t="n">
-        <v>130737.4996975604</v>
+        <v>150833.3840392598</v>
       </c>
       <c r="AE2" t="n">
-        <v>178880.8148175442</v>
+        <v>206376.8903416899</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.105769786099347e-06</v>
+        <v>8.842126201845731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.105555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>161808.6809122082</v>
+        <v>186680.5695793226</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.1061272322739</v>
+        <v>146.2071490547106</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.8615255199525</v>
+        <v>200.0470715407496</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.7000044879233</v>
+        <v>180.9548598007856</v>
       </c>
       <c r="AD3" t="n">
-        <v>116106.1272322739</v>
+        <v>146207.1490547106</v>
       </c>
       <c r="AE3" t="n">
-        <v>158861.5255199525</v>
+        <v>200047.0715407496</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.251554061736967e-06</v>
+        <v>9.094594099427398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.991666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>143700.0044879233</v>
+        <v>180954.8598007856</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.1053844985312</v>
+        <v>180.2808891360847</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.4855416036495</v>
+        <v>246.6682659473822</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.4925355278612</v>
+        <v>223.1265928465213</v>
       </c>
       <c r="AD2" t="n">
-        <v>153105.3844985311</v>
+        <v>180280.8891360847</v>
       </c>
       <c r="AE2" t="n">
-        <v>209485.5416036495</v>
+        <v>246668.2659473822</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.388325189896246e-06</v>
+        <v>8.303655581750587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.329166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>189492.5355278612</v>
+        <v>223126.5928465213</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.2427154037073</v>
+        <v>150.3213178162236</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.572073235238</v>
+        <v>205.6762587445647</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.4339665967048</v>
+        <v>186.0468052784842</v>
       </c>
       <c r="AD2" t="n">
-        <v>131242.7154037073</v>
+        <v>150321.3178162236</v>
       </c>
       <c r="AE2" t="n">
-        <v>179572.073235238</v>
+        <v>205676.2587445647</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.86513603112549e-06</v>
+        <v>8.863221263863054e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.598611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>162433.9665967048</v>
+        <v>186046.8052784842</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.2165910143871</v>
+        <v>208.5392895695682</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.3167786544141</v>
+        <v>285.3326560930963</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.5223352180058</v>
+        <v>258.1009078625531</v>
       </c>
       <c r="AD2" t="n">
-        <v>182216.5910143871</v>
+        <v>208539.2895695682</v>
       </c>
       <c r="AE2" t="n">
-        <v>249316.7786544141</v>
+        <v>285332.6560930962</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.847387609029816e-06</v>
+        <v>7.539640083611506e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.313888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>225522.3352180058</v>
+        <v>258100.9078625531</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.8161517070065</v>
+        <v>159.0823133410179</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.9343829018357</v>
+        <v>217.6634393294264</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.8073119723187</v>
+        <v>196.8899461724441</v>
       </c>
       <c r="AD2" t="n">
-        <v>138816.1517070065</v>
+        <v>159082.3133410178</v>
       </c>
       <c r="AE2" t="n">
-        <v>189934.3829018357</v>
+        <v>217663.4393294264</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.915430316498125e-06</v>
+        <v>8.456905485275173e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.226388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>171807.3119723187</v>
+        <v>196889.9461724441</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.0211343449724</v>
+        <v>136.3725473250043</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.7452345019251</v>
+        <v>186.590935582165</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.5948121214409</v>
+        <v>168.7829585722785</v>
       </c>
       <c r="AD3" t="n">
-        <v>116021.1343449723</v>
+        <v>136372.5473250043</v>
       </c>
       <c r="AE3" t="n">
-        <v>158745.2345019251</v>
+        <v>186590.935582165</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.28304815006328e-06</v>
+        <v>9.089385059388433e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.931944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>143594.8121214409</v>
+        <v>168782.9585722785</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.3793893124586</v>
+        <v>236.2319052697732</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.8503617407891</v>
+        <v>323.2229146060784</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.3783272168529</v>
+        <v>292.3749732823801</v>
       </c>
       <c r="AD2" t="n">
-        <v>210379.3893124586</v>
+        <v>236231.9052697732</v>
       </c>
       <c r="AE2" t="n">
-        <v>287850.3617407891</v>
+        <v>323222.9146060784</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.463390057450717e-06</v>
+        <v>6.942920816903084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.177777777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>260378.327216853</v>
+        <v>292374.9732823801</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.3086818943937</v>
+        <v>146.8519340370027</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.1893550304884</v>
+        <v>200.9292947994271</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.5649674627224</v>
+        <v>181.7528849098633</v>
       </c>
       <c r="AD2" t="n">
-        <v>127308.6818943937</v>
+        <v>146851.9340370027</v>
       </c>
       <c r="AE2" t="n">
-        <v>174189.3550304884</v>
+        <v>200929.2947994271</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.106279307411709e-06</v>
+        <v>9.043600085211349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.229166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>157564.9674627224</v>
+        <v>181752.8849098633</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.8217096287884</v>
+        <v>147.3649617713974</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.8913022098731</v>
+        <v>201.6312419788119</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.1999217884959</v>
+        <v>182.3878392356368</v>
       </c>
       <c r="AD3" t="n">
-        <v>127821.7096287884</v>
+        <v>147364.9617713974</v>
       </c>
       <c r="AE3" t="n">
-        <v>174891.3022098732</v>
+        <v>201631.2419788119</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.105346369657614e-06</v>
+        <v>9.041947783125136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.230555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>158199.9217884959</v>
+        <v>182387.8392356368</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.1655663713919</v>
+        <v>147.0846984130223</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.9935380581062</v>
+        <v>201.2477732875365</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.3878389873534</v>
+        <v>182.040968258055</v>
       </c>
       <c r="AD2" t="n">
-        <v>127165.5663713919</v>
+        <v>147084.6984130223</v>
       </c>
       <c r="AE2" t="n">
-        <v>173993.5380581062</v>
+        <v>201247.7732875365</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.180470468246556e-06</v>
+        <v>9.034288142062506e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.084722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>157387.8389873534</v>
+        <v>182040.968258055</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.4234113352605</v>
+        <v>146.3425433768909</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.9780887961023</v>
+        <v>200.2323240255326</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.4693027777228</v>
+        <v>181.1224320484244</v>
       </c>
       <c r="AD3" t="n">
-        <v>126423.4113352605</v>
+        <v>146342.5433768909</v>
       </c>
       <c r="AE3" t="n">
-        <v>172978.0887961023</v>
+        <v>200232.3240255326</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.21581540262584e-06</v>
+        <v>9.09592662132843e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.056944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>156469.3027777228</v>
+        <v>181122.4320484244</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.1273657073057</v>
+        <v>199.0543008242818</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.0392790165229</v>
+        <v>272.3548760436311</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.0846530894081</v>
+        <v>246.3617089265761</v>
       </c>
       <c r="AD2" t="n">
-        <v>168127.3657073057</v>
+        <v>199054.3008242818</v>
       </c>
       <c r="AE2" t="n">
-        <v>230039.2790165229</v>
+        <v>272354.8760436311</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.326670770400372e-06</v>
+        <v>7.355053553609867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.720833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>208084.6530894081</v>
+        <v>246361.7089265761</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.6670287479355</v>
+        <v>137.341879395634</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.6289757189088</v>
+        <v>187.9172184851127</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.3942103170146</v>
+        <v>169.9826628964191</v>
       </c>
       <c r="AD3" t="n">
-        <v>116667.0287479355</v>
+        <v>137341.879395634</v>
       </c>
       <c r="AE3" t="n">
-        <v>159628.9757189088</v>
+        <v>187917.2184851127</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.312498213039264e-06</v>
+        <v>9.030894869022997e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.844444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>144394.2103170146</v>
+        <v>169982.6628964191</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.261334598347</v>
+        <v>148.3923759746342</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.8610606049936</v>
+        <v>203.0369954179954</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.9816892069599</v>
+        <v>183.6594295395724</v>
       </c>
       <c r="AD2" t="n">
-        <v>129261.334598347</v>
+        <v>148392.3759746342</v>
       </c>
       <c r="AE2" t="n">
-        <v>176861.0606049936</v>
+        <v>203036.9954179954</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.966037654786129e-06</v>
+        <v>8.954941054444308e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.448611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>159981.6892069599</v>
+        <v>183659.4295395724</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.5932098020852</v>
+        <v>166.0967403095884</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.9435410039911</v>
+        <v>227.2608877624975</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.6703328801675</v>
+        <v>205.5714275971695</v>
       </c>
       <c r="AD2" t="n">
-        <v>147593.2098020852</v>
+        <v>166096.7403095884</v>
       </c>
       <c r="AE2" t="n">
-        <v>201943.5410039911</v>
+        <v>227260.8877624975</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.579538998394739e-06</v>
+        <v>8.543955954620862e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.026388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>182670.3328801675</v>
+        <v>205571.4275971695</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.0951245788378</v>
+        <v>187.9955925183155</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.417456463975</v>
+        <v>257.2238634636378</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.3811237769596</v>
+        <v>232.6747789507029</v>
       </c>
       <c r="AD2" t="n">
-        <v>161095.1245788378</v>
+        <v>187995.5925183155</v>
       </c>
       <c r="AE2" t="n">
-        <v>220417.456463975</v>
+        <v>257223.8634636378</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.148649745388838e-06</v>
+        <v>7.978007307282613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.738888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>199381.1237769596</v>
+        <v>232674.7789507029</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.7369152037405</v>
+        <v>296.6619080996852</v>
       </c>
       <c r="AB2" t="n">
-        <v>348.5422855811407</v>
+        <v>405.9059104616852</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.2778990275507</v>
+        <v>367.1668200597445</v>
       </c>
       <c r="AD2" t="n">
-        <v>254736.9152037405</v>
+        <v>296661.9080996852</v>
       </c>
       <c r="AE2" t="n">
-        <v>348542.2855811407</v>
+        <v>405905.9104616852</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.939992544531694e-06</v>
+        <v>6.064026627162594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.691666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>315277.8990275508</v>
+        <v>367166.8200597445</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.5756887827984</v>
+        <v>146.3108893771524</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.1864415178305</v>
+        <v>200.1890136266144</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.6577706081142</v>
+        <v>181.0832551331924</v>
       </c>
       <c r="AD2" t="n">
-        <v>126575.6887827984</v>
+        <v>146310.8893771524</v>
       </c>
       <c r="AE2" t="n">
-        <v>173186.4415178305</v>
+        <v>200189.0136266144</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.164329911785928e-06</v>
+        <v>9.073523933679732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.138888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>156657.7706081143</v>
+        <v>181083.2551331924</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.4717387895902</v>
+        <v>146.2069393839441</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.0442125511729</v>
+        <v>200.0467846599569</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.5291157744149</v>
+        <v>180.9546002994931</v>
       </c>
       <c r="AD3" t="n">
-        <v>126471.7387895902</v>
+        <v>146206.9393839441</v>
       </c>
       <c r="AE3" t="n">
-        <v>173044.2125511729</v>
+        <v>200046.7846599569</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.181255582622756e-06</v>
+        <v>9.103261669659974e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>156529.1157744149</v>
+        <v>180954.6002994931</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.9899648462427</v>
+        <v>172.420527045053</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.9593752265472</v>
+        <v>235.9133717597367</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.1120243278011</v>
+        <v>213.3981306655525</v>
       </c>
       <c r="AD2" t="n">
-        <v>151989.9648462427</v>
+        <v>172420.527045053</v>
       </c>
       <c r="AE2" t="n">
-        <v>207959.3752265472</v>
+        <v>235913.3717597367</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.625993441461218e-06</v>
+        <v>7.909933253107897e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.451388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>188112.0243278011</v>
+        <v>213398.1306655525</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.0231101614292</v>
+        <v>136.5389237062601</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.7479379011682</v>
+        <v>186.818579087007</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.5972575120546</v>
+        <v>168.9888761005182</v>
       </c>
       <c r="AD3" t="n">
-        <v>116023.1101614292</v>
+        <v>136538.92370626</v>
       </c>
       <c r="AE3" t="n">
-        <v>158747.9379011682</v>
+        <v>186818.579087007</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.308497618231178e-06</v>
+        <v>9.076939335484117e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.879166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>143597.2575120546</v>
+        <v>168988.8761005182</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>354.3804030549716</v>
+        <v>403.2079738554551</v>
       </c>
       <c r="AB2" t="n">
-        <v>484.8789016197922</v>
+        <v>551.6869381094073</v>
       </c>
       <c r="AC2" t="n">
-        <v>438.6027397810111</v>
+        <v>499.0347110337254</v>
       </c>
       <c r="AD2" t="n">
-        <v>354380.4030549715</v>
+        <v>403207.9738554551</v>
       </c>
       <c r="AE2" t="n">
-        <v>484878.9016197922</v>
+        <v>551686.9381094073</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.228739365068757e-06</v>
+        <v>4.777214995434886e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.87222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>438602.7397810111</v>
+        <v>499034.7110337254</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.4641799509976</v>
+        <v>162.5135710216638</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.9798231498237</v>
+        <v>222.358237464489</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.4210470457598</v>
+        <v>201.1366793626885</v>
       </c>
       <c r="AD2" t="n">
-        <v>134464.1799509976</v>
+        <v>162513.5710216638</v>
       </c>
       <c r="AE2" t="n">
-        <v>183979.8231498238</v>
+        <v>222358.237464489</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.729487204864744e-06</v>
+        <v>8.713761100601007e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.795833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>166421.0470457598</v>
+        <v>201136.6793626884</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.8747814286364</v>
+        <v>147.2170585644203</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.9639173877877</v>
+        <v>201.4288742859969</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.2656066757464</v>
+        <v>182.2047852313992</v>
       </c>
       <c r="AD2" t="n">
-        <v>127874.7814286364</v>
+        <v>147217.0585644203</v>
       </c>
       <c r="AE2" t="n">
-        <v>174963.9173877877</v>
+        <v>201428.8742859969</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.048104901645632e-06</v>
+        <v>9.018071004774042e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.324999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>158265.6066757464</v>
+        <v>182204.7852313992</v>
       </c>
     </row>
   </sheetData>
